--- a/medicine/Psychotrope/Amigne/Amigne.xlsx
+++ b/medicine/Psychotrope/Amigne/Amigne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'amigne est un cépage blanc très ancien originaire du Valais, surtout cultivé à Vétroz.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">José Vouillamoz[1] constate lors d'analyses ADN une affinité génétique avec le petit meslier, originaire de Champagne.[réf. souhaitée]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">José Vouillamoz constate lors d'analyses ADN une affinité génétique avec le petit meslier, originaire de Champagne.[réf. souhaitée]
 L'amigne est un cépage de troisième époque mûrissant très tardivement. Le moût est très sucré, acidulé et légèrement tannique. L'amigne peut produire aussi bien des vins secs que liquoreux ou doux.
 Afin d'informer le consommateur sur le taux de sucre de ses vins d'amigne, le groupement des encaveurs de Vétroz a créé une étiquette spéciale. La sucrosité du vin est indiquée par le nombre d'abeilles : 
 une abeille : entre 0 et 8 grammes de sucre par litre - vin sec ;
